--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,48 @@
         <v>102.99</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F76368_1556288889</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43581.64456029036</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Caixas</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>391.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>783.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -1,36 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21625"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA310129-F123-4777-AD71-9BC4EBCED8C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>F85206_1556264928</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Caixas</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Antec ISK 300-150 EC PC 150W Preto caixa para computador; </t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Cooler Master CM 690 III Torre-Midi Preto caixa para computador; </t>
+  </si>
+  <si>
+    <t>F76368_1556288889</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul; </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,16 +86,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,146 +392,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>F85206_1556264928</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>43581.36723485918</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Caixas</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43581.367234859179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nome: Antec ISK 300-150 EC PC 150W Preto caixa para computador; </t>
-        </is>
-      </c>
-      <c r="H1" t="n">
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1">
         <v>1</v>
       </c>
-      <c r="I1" t="n">
-        <v>94.98999999999999</v>
-      </c>
-      <c r="J1" t="n">
-        <v>94.98999999999999</v>
+      <c r="I1">
+        <v>94.99</v>
+      </c>
+      <c r="J1">
+        <v>94.99</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>F85206_1556264928</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>43581.36723485918</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Caixas</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43581.367234859179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nome: Cooler Master CM 690 III Torre-Midi Preto caixa para computador; </t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>102.99</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>102.99</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>F76368_1556288889</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>43581.64456029036</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Caixas</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43581.644560290362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nome: ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul; </t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>391.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>783.98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -1,76 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21625"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA310129-F123-4777-AD71-9BC4EBCED8C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>F85206_1556264928</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Caixas</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome: Antec ISK 300-150 EC PC 150W Preto caixa para computador; </t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome: Cooler Master CM 690 III Torre-Midi Preto caixa para computador; </t>
-  </si>
-  <si>
-    <t>F76368_1556288889</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome: ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul; </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,25 +46,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -392,113 +344,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>43581.367234859179</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>F85206_1556264928</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>43581.36723485918</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Caixas</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Antec ISK 300-150 EC PC 150W Preto caixa para computador; </t>
+        </is>
+      </c>
+      <c r="H1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="J1" t="n">
+        <v>94.98999999999999</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>F85206_1556264928</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43581.36723485918</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Caixas</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Cooler Master CM 690 III Torre-Midi Preto caixa para computador; </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="J2" t="n">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F76368_1556288889</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43581.64456029036</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Caixas</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1">
+      <c r="I3" t="n">
+        <v>391.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>783.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F56788_1556321706</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>43582.02438407714</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mesas</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: MESAS ANGULARES COM ABA; Tamanho: 1600x700x850; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I1">
-        <v>94.99</v>
-      </c>
-      <c r="J1">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43581.367234859179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>102.99</v>
-      </c>
-      <c r="J2">
-        <v>102.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43581.644560290362</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>391.99</v>
-      </c>
-      <c r="J3">
-        <v>783.98</v>
+      <c r="I4" t="n">
+        <v>600</v>
+      </c>
+      <c r="J4" t="n">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,132 @@
         <v>600</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>F42526_1556376875</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>43582.66291511683</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Pia de aço inoxidável; Tamanho: 500x500x300; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>265</v>
+      </c>
+      <c r="J5" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F47925_1556377194</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>43582.66660429283</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lavabos</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Mesa de café; Tamanho: 1280x510x340; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>948</v>
+      </c>
+      <c r="J6" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F48023_1556378049</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>43582.67649983744</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lavabos</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Pia de aço inoxidável; Tamanho: 500x500x300; </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>265</v>
+      </c>
+      <c r="J7" t="n">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,48 @@
         <v>530</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F88501_1556378980</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>43582.6872817175</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Pia de aço inoxidável; Tamanho: 500x500x300; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>265</v>
+      </c>
+      <c r="J8" t="n">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,6 +696,132 @@
         <v>265</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F66695_1556390087</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>43582.8158322888</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nayorken</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: MESAS EM INOX; Tamanho: 1400x600x850; </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>575</v>
+      </c>
+      <c r="J9" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F66695_1556390087</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>43582.8158322888</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nayorken</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: MESAS MURAIS COM ABA; Tamanho: 1600x600x850; </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1034</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F21695_1556390228</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>43582.81745741526</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nayorken</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armários Verticais; Tamanho: 1600 x 400 x 1800mm	; </t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>170</v>
+      </c>
+      <c r="J11" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,90 @@
         <v>170</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>43582.87966502165</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armário Parede Inox; Tamanho: 2000 x 400 x 600mm; </t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>170</v>
+      </c>
+      <c r="J12" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F57870_1556395636</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>43582.88005512426</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: MESAS EM INOX; Tamanho: 1400x600x850; </t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>575</v>
+      </c>
+      <c r="J13" t="n">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,6 +906,90 @@
         <v>575</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>F59525_1556441233</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>43583.40780060463</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armário Parede Inox; Tamanho: 2000 x 400 x 600mm; </t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>170</v>
+      </c>
+      <c r="J14" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>F55850_1556445769</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>43583.46029731617</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armário Parede Inox; Tamanho: 2000 x 400 x 600mm; </t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>170</v>
+      </c>
+      <c r="J15" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,6 +990,48 @@
         <v>170</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>F94887_1556454063</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>43583.55629733979</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armário Parede Inox; Tamanho: 2000 x 400 x 600mm; </t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>170</v>
+      </c>
+      <c r="J16" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,48 @@
         <v>170</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>F92282_1556533912</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>43584.48050412007</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Hottes</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: MESAS MURAIS COM ABA; Tamanho: 1600x600x850; </t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1034</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,132 @@
         <v>1034</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>F53461_1556814852</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43587.73210432509</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armários Verticais; Tamanho: 1600 x 400 x 1800mm	; </t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>170</v>
+      </c>
+      <c r="J18" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>F18970_1556814854</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>43587.73211131623</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armários Verticais; Tamanho: 1600 x 400 x 1800mm	; </t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>170</v>
+      </c>
+      <c r="J19" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>F16927_1556815239</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>43587.73657058226</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Armários</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Referencia: Armário Parede Inox; Tamanho: 2000 x 400 x 600mm; </t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>170</v>
+      </c>
+      <c r="J20" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
